--- a/plan/test/helper/単体テスト仕様書-ImageUploadHelper.xlsx
+++ b/plan/test/helper/単体テスト仕様書-ImageUploadHelper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E888307-E314-4A93-9312-F3FCDEC8EF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2B74E-0FD3-4618-A567-58D88DDDEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="1440" windowWidth="12080" windowHeight="7270" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductHelper" sheetId="166" r:id="rId1"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>helper/ProductHelper.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>uploadFile(filename:String,imageByte byte[])</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -189,6 +185,10 @@
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>helper/ImageUploadHelper.java</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -400,44 +400,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="54" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -809,25 +809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,27 +838,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,20 +896,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -919,27 +919,27 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="174.5" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -948,17 +948,17 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="82.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="21"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -967,17 +967,17 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -986,39 +986,30 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="42" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -1030,6 +1021,15 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/helper/単体テスト仕様書-ImageUploadHelper.xlsx
+++ b/plan/test/helper/単体テスト仕様書-ImageUploadHelper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2B74E-0FD3-4618-A567-58D88DDDEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884B429-AC15-4AB6-AF99-4BDA073ADF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1070" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductHelper" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>作成者</t>
   </si>
@@ -159,28 +159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>uploadFile(filename:String,imageByte byte[])</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数
-filebame:test.png,  imageByte:null</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フルパスのファイル名が返されること</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
@@ -189,6 +167,62 @@
   </si>
   <si>
     <t>helper/ImageUploadHelper.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uploadFile(String filename, byte[] imageByte)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>引数
+filebame:test.png,  imageByte:"test image content".getBytes()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルが正しくさくせいされているかどうか確認する</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川佳苗</t>
+    <rPh sb="0" eb="4">
+      <t>タテカワカナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川佳苗</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -196,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -250,6 +284,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,7 +395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,19 +442,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,20 +466,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -791,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -809,25 +854,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,27 +883,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -868,7 +913,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -896,20 +943,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -919,46 +966,52 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="174.5" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="M5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="82.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -967,17 +1020,17 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -986,30 +1039,39 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="42" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -1021,15 +1083,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
